--- a/web/public/biosamples_template.xlsx
+++ b/web/public/biosamples_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="4820" windowWidth="35480" windowHeight="15760" tabRatio="612" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="6520" yWindow="4820" windowWidth="29160" windowHeight="15760" tabRatio="612"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="specimen" sheetId="3" r:id="rId9"/>
     <sheet name="purified cells" sheetId="4" r:id="rId10"/>
     <sheet name="cell culture" sheetId="5" r:id="rId11"/>
+    <sheet name="cell line" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>NCBI Taxonomy</t>
   </si>
@@ -85,30 +86,12 @@
     <t>README</t>
   </si>
   <si>
-    <t>This spreadsheet is an example of what sample metadata compliant with a FAANG metadata standard might look like.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was prepared based on the samples in this paper: </t>
-  </si>
-  <si>
-    <t>http://journals.plos.org/plosone/article?id=10.1371/journal.pone.0124375</t>
-  </si>
-  <si>
-    <t>It was based on this version of the sample specification:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are four tabs to look at, one per class of specimen. </t>
-  </si>
-  <si>
     <t>Each specimen is derived from an animal.</t>
   </si>
   <si>
     <t>Cell and culture samples are derived from cell or specimen samples</t>
   </si>
   <si>
-    <t>https://github.com/FAANG/faang-metadata/blob/dr_faang_rulesets/docs/faang_sample_metadata.md</t>
-  </si>
-  <si>
     <t>LBO</t>
   </si>
   <si>
@@ -124,24 +107,12 @@
     <t>Submission Description</t>
   </si>
   <si>
-    <t>Submission Version</t>
-  </si>
-  <si>
-    <t>Submission Reference Layer</t>
-  </si>
-  <si>
     <t>Submission Update Date</t>
   </si>
   <si>
     <t>Submission Release Date</t>
   </si>
   <si>
-    <t>A test submission</t>
-  </si>
-  <si>
-    <t>This is just a draft</t>
-  </si>
-  <si>
     <t>Person Last Name</t>
   </si>
   <si>
@@ -169,18 +140,6 @@
     <t>Organization Role</t>
   </si>
   <si>
-    <t>EMBL-EBI</t>
-  </si>
-  <si>
-    <t>Wellcome Genome Campus, Hinxton, Cambridge, CB10 1SD, United Kingdom</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/</t>
-  </si>
-  <si>
-    <t>curator</t>
-  </si>
-  <si>
     <t>Publication PubMed ID</t>
   </si>
   <si>
@@ -205,48 +164,18 @@
     <t>http://purl.obolibrary.org/obo/</t>
   </si>
   <si>
-    <t>http://www.ncbi.nlm.nih.gov/taxonomy</t>
-  </si>
-  <si>
     <t>http://www.ebi.ac.uk/efo/</t>
   </si>
   <si>
-    <t>http://bioportal.bioontology.org/ontologies/LBO</t>
-  </si>
-  <si>
     <t>VT</t>
   </si>
   <si>
-    <t>http://bioportal.bioontology.org/ontologies/VT</t>
-  </si>
-  <si>
     <t>EOL</t>
   </si>
   <si>
-    <t>http://uberon.github.io/</t>
-  </si>
-  <si>
-    <t>http://www.ontobee.org/ontology/CL</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/ols/beta/ontologies/atol</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/ols/beta/ontologies/eol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/pato</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/bto</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
-    <t>FAANG</t>
-  </si>
-  <si>
     <t>breed</t>
   </si>
   <si>
@@ -283,21 +212,9 @@
     <t>pedigree</t>
   </si>
   <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>physiological conditions</t>
-  </si>
-  <si>
-    <t>environmental conditions</t>
-  </si>
-  <si>
     <t>availability</t>
   </si>
   <si>
-    <t>tissue</t>
-  </si>
-  <si>
     <t>specimen collection protocol</t>
   </si>
   <si>
@@ -353,16 +270,64 @@
   </si>
   <si>
     <t>number of passages</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/taxonomy/</t>
+  </si>
+  <si>
+    <t>http://opendata.inra.fr/ATOL/</t>
+  </si>
+  <si>
+    <t>http://opendata.inra.fr/EOL/</t>
+  </si>
+  <si>
+    <t>organism part</t>
+  </si>
+  <si>
+    <t>cell line</t>
+  </si>
+  <si>
+    <t>biomaterial provider</t>
+  </si>
+  <si>
+    <t>catalogue number</t>
+  </si>
+  <si>
+    <t>passage number</t>
+  </si>
+  <si>
+    <t>date established</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>culture protocol</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>karyotype</t>
+  </si>
+  <si>
+    <t>Derived from</t>
+  </si>
+  <si>
+    <t>This empty spreadsheet is a template for FAANG metadata submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are five tabs to look at, one per class of specimen. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +399,21 @@
       <u/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -551,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -861,8 +841,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -878,32 +862,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="313">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1107,6 +1108,10 @@
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1541,53 +1546,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1605,25 +1592,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
@@ -1635,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>11</v>
@@ -1650,16 +1635,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>5</v>
@@ -1669,20 +1654,18 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="C2" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="C2" s="25"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="27"/>
+      <c r="G2" s="23"/>
       <c r="H2"/>
-      <c r="M2" s="22"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="9"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="23"/>
       <c r="H3"/>
     </row>
     <row r="4" spans="1:13">
@@ -1774,7 +1757,7 @@
     </row>
     <row r="17" spans="2:13" s="13" customFormat="1">
       <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1785,7 +1768,7 @@
     </row>
     <row r="18" spans="2:13" s="13" customFormat="1">
       <c r="B18" s="9"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="9"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1796,7 +1779,7 @@
     </row>
     <row r="19" spans="2:13" s="13" customFormat="1">
       <c r="B19" s="9"/>
-      <c r="C19" s="23"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1807,7 +1790,7 @@
     </row>
     <row r="20" spans="2:13" s="13" customFormat="1">
       <c r="B20" s="9"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1818,7 +1801,7 @@
     </row>
     <row r="21" spans="2:13" s="13" customFormat="1">
       <c r="B21" s="9"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1829,7 +1812,7 @@
     </row>
     <row r="22" spans="2:13" s="13" customFormat="1">
       <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1840,7 +1823,7 @@
     </row>
     <row r="23" spans="2:13" s="13" customFormat="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1851,7 +1834,7 @@
     </row>
     <row r="24" spans="2:13" s="13" customFormat="1">
       <c r="B24" s="9"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1862,7 +1845,7 @@
     </row>
     <row r="25" spans="2:13" s="13" customFormat="1">
       <c r="B25" s="9"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1873,7 +1856,7 @@
     </row>
     <row r="26" spans="2:13" s="13" customFormat="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1884,7 +1867,7 @@
     </row>
     <row r="27" spans="2:13" s="13" customFormat="1">
       <c r="B27" s="9"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1895,7 +1878,7 @@
     </row>
     <row r="28" spans="2:13" s="13" customFormat="1">
       <c r="B28" s="9"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="9"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1906,7 +1889,7 @@
     </row>
     <row r="29" spans="2:13" s="13" customFormat="1">
       <c r="B29" s="9"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -1917,7 +1900,7 @@
     </row>
     <row r="30" spans="2:13" s="13" customFormat="1">
       <c r="B30" s="9"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1928,7 +1911,7 @@
     </row>
     <row r="31" spans="2:13" s="13" customFormat="1">
       <c r="B31" s="9"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1939,7 +1922,7 @@
     </row>
     <row r="32" spans="2:13" s="13" customFormat="1">
       <c r="B32" s="9"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1950,7 +1933,7 @@
     </row>
     <row r="33" spans="2:13" s="13" customFormat="1">
       <c r="B33" s="9"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="9"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1961,7 +1944,7 @@
     </row>
     <row r="34" spans="2:13" s="13" customFormat="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="9"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1972,7 +1955,7 @@
     </row>
     <row r="35" spans="2:13" s="13" customFormat="1">
       <c r="B35" s="9"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="9"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1983,7 +1966,7 @@
     </row>
     <row r="36" spans="2:13" s="13" customFormat="1">
       <c r="B36" s="9"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="9"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -1994,7 +1977,7 @@
     </row>
     <row r="37" spans="2:13" s="13" customFormat="1">
       <c r="B37" s="9"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2005,7 +1988,7 @@
     </row>
     <row r="38" spans="2:13" s="13" customFormat="1">
       <c r="B38" s="9"/>
-      <c r="C38" s="23"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="9"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2016,7 +1999,7 @@
     </row>
     <row r="39" spans="2:13" s="13" customFormat="1">
       <c r="B39" s="9"/>
-      <c r="C39" s="23"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="9"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2027,7 +2010,7 @@
     </row>
     <row r="40" spans="2:13" s="13" customFormat="1">
       <c r="B40" s="9"/>
-      <c r="C40" s="23"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="9"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2038,7 +2021,7 @@
     </row>
     <row r="41" spans="2:13" s="13" customFormat="1">
       <c r="B41" s="9"/>
-      <c r="C41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="9"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2049,7 +2032,7 @@
     </row>
     <row r="42" spans="2:13" s="13" customFormat="1">
       <c r="B42" s="9"/>
-      <c r="C42" s="23"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="9"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2060,7 +2043,7 @@
     </row>
     <row r="43" spans="2:13" s="13" customFormat="1">
       <c r="B43" s="9"/>
-      <c r="C43" s="23"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="9"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2071,7 +2054,7 @@
     </row>
     <row r="44" spans="2:13" s="13" customFormat="1">
       <c r="B44" s="9"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="9"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2082,7 +2065,7 @@
     </row>
     <row r="45" spans="2:13" s="13" customFormat="1">
       <c r="B45" s="9"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="9"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2106,27 +2089,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="13"/>
-    <col min="14" max="14" width="10.83203125" style="8"/>
-    <col min="15" max="15" width="21.5" style="8" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="21" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
@@ -2137,8 +2120,8 @@
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>70</v>
+      <c r="C1" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>11</v>
@@ -2153,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2165,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>5</v>
@@ -2174,27 +2157,25 @@
         <v>6</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="C2" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="C2" s="25"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="K2" s="22"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="C3" s="29"/>
+      <c r="C3" s="25"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="8"/>
@@ -2202,63 +2183,63 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="C4" s="29"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="C5" s="29"/>
+      <c r="C5" s="25"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="C6" s="29"/>
+      <c r="C6" s="25"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="29"/>
+      <c r="C7" s="25"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="C8" s="29"/>
+      <c r="C8" s="25"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="29"/>
+      <c r="C9" s="25"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="29"/>
+      <c r="C10" s="25"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="C11" s="29"/>
+      <c r="C11" s="25"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="C12" s="29"/>
+      <c r="C12" s="25"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
@@ -2618,53 +2599,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="48"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="23"/>
+    <col min="18" max="18" width="10.83203125" style="50"/>
+    <col min="19" max="19" width="10.83203125" style="23"/>
+    <col min="20" max="20" width="10.83203125" style="48"/>
+    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="23"/>
+    <col min="28" max="28" width="10.83203125" style="48"/>
+    <col min="31" max="31" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" style="50" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:33" s="42" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="N2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="46"/>
+      <c r="AB2"/>
+      <c r="AD2" s="49"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="H3" s="51"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="46"/>
+      <c r="AB3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>1.2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2684,22 +2825,29 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2714,50 +2862,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="17">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2777,13 +2916,17 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -2804,16 +2947,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2831,17 +2979,21 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2849,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2857,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2865,15 +3017,15 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2881,31 +3033,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2913,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2921,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2929,7 +3081,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2944,60 +3096,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU12"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.83203125" style="17"/>
-    <col min="18" max="18" width="10.83203125" style="18"/>
-    <col min="19" max="19" width="18" style="19" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="19"/>
-    <col min="21" max="21" width="17.33203125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="17" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="18"/>
-    <col min="24" max="24" width="17.5" style="17" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="18"/>
-    <col min="26" max="26" width="19.33203125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="18"/>
-    <col min="28" max="28" width="10.83203125" style="19"/>
-    <col min="29" max="29" width="10.83203125" style="18"/>
-    <col min="30" max="30" width="10.83203125" style="17"/>
-    <col min="31" max="31" width="10.83203125" style="18"/>
-    <col min="32" max="32" width="10.83203125" style="19"/>
-    <col min="33" max="33" width="10.83203125" style="18"/>
-    <col min="34" max="34" width="10.83203125" style="19"/>
-    <col min="35" max="35" width="10.83203125" style="18"/>
-    <col min="36" max="36" width="10.83203125" style="19"/>
-    <col min="37" max="38" width="10.83203125" style="23"/>
-    <col min="39" max="40" width="10.83203125" style="17"/>
-    <col min="41" max="41" width="10.83203125" style="18"/>
-    <col min="42" max="43" width="10.83203125" style="17"/>
-    <col min="44" max="44" width="10.83203125" style="18"/>
-    <col min="45" max="46" width="10.83203125" style="17"/>
-    <col min="47" max="47" width="10.83203125" style="18"/>
-    <col min="48" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="16" customFormat="1" ht="15">
+    <row r="1" spans="1:38" s="15" customFormat="1" ht="15">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -3017,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -3044,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>5</v>
@@ -3053,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>5</v>
@@ -3061,91 +3209,62 @@
       <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="32" t="s">
         <v>9</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15">
       <c r="A2" s="13"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="C2" s="25"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="8"/>
@@ -3164,8 +3283,8 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="8"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
       <c r="X2" s="13"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="11"/>
@@ -3181,17 +3300,8 @@
       <c r="AJ2" s="11"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="14"/>
-    </row>
-    <row r="3" spans="1:47" ht="15">
+    </row>
+    <row r="3" spans="1:38" ht="15">
       <c r="A3" s="13"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3213,8 +3323,8 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="8"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="11"/>
@@ -3230,17 +3340,8 @@
       <c r="AJ3" s="11"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="14"/>
-    </row>
-    <row r="4" spans="1:47" ht="15">
+    </row>
+    <row r="4" spans="1:38" ht="15">
       <c r="A4" s="13"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3262,8 +3363,8 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="8"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="11"/>
@@ -3279,17 +3380,8 @@
       <c r="AJ4" s="11"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="14"/>
-    </row>
-    <row r="5" spans="1:47" ht="15">
+    </row>
+    <row r="5" spans="1:38" ht="15">
       <c r="A5" s="13"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3311,8 +3403,8 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="8"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="11"/>
@@ -3328,17 +3420,8 @@
       <c r="AJ5" s="11"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="14"/>
-    </row>
-    <row r="6" spans="1:47" ht="15">
+    </row>
+    <row r="6" spans="1:38" ht="15">
       <c r="A6" s="13"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3360,8 +3443,8 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="8"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="11"/>
@@ -3377,17 +3460,8 @@
       <c r="AJ6" s="11"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="14"/>
-    </row>
-    <row r="7" spans="1:47" ht="15">
+    </row>
+    <row r="7" spans="1:38" ht="15">
       <c r="A7" s="13"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3409,8 +3483,8 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="8"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="11"/>
@@ -3426,17 +3500,8 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="14"/>
-    </row>
-    <row r="8" spans="1:47" ht="15">
+    </row>
+    <row r="8" spans="1:38" ht="15">
       <c r="A8" s="13"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3458,8 +3523,8 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="8"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="11"/>
@@ -3475,17 +3540,8 @@
       <c r="AJ8" s="11"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="14"/>
-    </row>
-    <row r="9" spans="1:47" ht="15">
+    </row>
+    <row r="9" spans="1:38" ht="15">
       <c r="A9" s="13"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3507,8 +3563,8 @@
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="8"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="34"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="11"/>
@@ -3524,17 +3580,8 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="14"/>
-    </row>
-    <row r="10" spans="1:47" ht="15">
+    </row>
+    <row r="10" spans="1:38" ht="15">
       <c r="A10" s="13"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3556,8 +3603,8 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="8"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="11"/>
@@ -3573,17 +3620,8 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="14"/>
-    </row>
-    <row r="11" spans="1:47" ht="15">
+    </row>
+    <row r="11" spans="1:38" ht="15">
       <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3605,8 +3643,8 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="8"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="11"/>
@@ -3622,17 +3660,8 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="14"/>
-    </row>
-    <row r="12" spans="1:47" ht="15">
+    </row>
+    <row r="12" spans="1:38" ht="15">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3654,8 +3683,8 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="8"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="11"/>
@@ -3671,15 +3700,6 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3694,53 +3714,51 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ166"/>
+  <dimension ref="A1:AG166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="29" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="8"/>
-    <col min="15" max="15" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="8" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5" style="13" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="12" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="13"/>
-    <col min="26" max="26" width="10.83203125" style="11"/>
-    <col min="27" max="27" width="23.33203125" style="9" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" style="12" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" style="8" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.33203125" style="9" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" style="9"/>
-    <col min="36" max="16384" width="10.83203125" style="13"/>
+    <col min="23" max="23" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" style="9"/>
+    <col min="34" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="5" customFormat="1">
+    <row r="1" spans="1:33" s="5" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -3748,9 +3766,9 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -3763,10 +3781,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -3775,22 +3793,22 @@
         <v>6</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>5</v>
@@ -3799,7 +3817,7 @@
         <v>6</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>5</v>
@@ -3808,409 +3826,370 @@
         <v>6</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AC1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="C2" s="29" t="s">
+      <c r="AE1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="AF1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="C2" s="25"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="G2" s="3"/>
       <c r="H2" s="9"/>
-      <c r="M2" s="26"/>
       <c r="P2" s="14"/>
       <c r="V2" s="3"/>
-      <c r="AJ2" s="33"/>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AG2" s="30"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="C3" s="9"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
       <c r="G3" s="3"/>
       <c r="H3" s="9"/>
       <c r="K3" s="14"/>
-      <c r="M3" s="26"/>
       <c r="P3" s="14"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:33">
       <c r="C4" s="9"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
       <c r="G4" s="3"/>
       <c r="H4" s="9"/>
       <c r="K4" s="14"/>
-      <c r="M4" s="26"/>
       <c r="P4" s="14"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:33">
       <c r="C5" s="9"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
       <c r="G5" s="3"/>
       <c r="H5" s="9"/>
       <c r="K5" s="14"/>
-      <c r="M5" s="26"/>
       <c r="P5" s="14"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:33">
       <c r="C6" s="9"/>
-      <c r="D6" s="32"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
       <c r="H6" s="9"/>
       <c r="K6" s="14"/>
-      <c r="M6" s="26"/>
       <c r="P6" s="14"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:33">
       <c r="C7" s="9"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
       <c r="G7" s="3"/>
       <c r="H7" s="9"/>
       <c r="K7" s="14"/>
-      <c r="M7" s="26"/>
       <c r="P7" s="14"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:33">
       <c r="C8" s="9"/>
-      <c r="D8" s="32"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="3"/>
       <c r="H8" s="9"/>
-      <c r="M8" s="26"/>
       <c r="P8" s="14"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:33">
       <c r="C9" s="9"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
       <c r="G9" s="3"/>
       <c r="H9" s="9"/>
-      <c r="M9" s="26"/>
       <c r="P9" s="14"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:33">
       <c r="C10" s="9"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="3"/>
       <c r="H10" s="9"/>
       <c r="K10" s="14"/>
-      <c r="M10" s="26"/>
       <c r="P10" s="14"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:33">
       <c r="C11" s="9"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="9"/>
       <c r="K11" s="14"/>
-      <c r="M11" s="26"/>
       <c r="P11" s="14"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:33">
       <c r="C12" s="9"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="3"/>
       <c r="H12" s="9"/>
       <c r="K12" s="14"/>
-      <c r="M12" s="26"/>
       <c r="P12" s="14"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:33">
       <c r="C13" s="9"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="3"/>
       <c r="H13" s="9"/>
       <c r="K13" s="14"/>
-      <c r="M13" s="26"/>
       <c r="P13" s="14"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:33">
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="3"/>
       <c r="H14" s="9"/>
       <c r="K14" s="14"/>
-      <c r="M14" s="26"/>
       <c r="P14" s="14"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:33">
       <c r="C15" s="9"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="3"/>
       <c r="H15" s="9"/>
       <c r="K15" s="14"/>
-      <c r="M15" s="26"/>
       <c r="P15" s="14"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:33">
       <c r="C16" s="9"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
       <c r="G16" s="3"/>
       <c r="H16" s="9"/>
       <c r="K16" s="14"/>
-      <c r="M16" s="26"/>
       <c r="P16" s="14"/>
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="3:22">
       <c r="C17" s="9"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="3"/>
       <c r="H17" s="9"/>
       <c r="K17" s="14"/>
-      <c r="M17" s="26"/>
       <c r="P17" s="14"/>
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" s="9"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="3"/>
       <c r="H18" s="9"/>
       <c r="K18" s="14"/>
-      <c r="M18" s="26"/>
       <c r="P18" s="14"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="3:22">
       <c r="C19" s="9"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
       <c r="G19" s="3"/>
       <c r="H19" s="9"/>
       <c r="K19" s="14"/>
-      <c r="M19" s="26"/>
       <c r="P19" s="14"/>
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="3:22">
       <c r="C20" s="9"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
       <c r="G20" s="3"/>
       <c r="H20" s="9"/>
       <c r="K20" s="14"/>
-      <c r="M20" s="26"/>
       <c r="P20" s="14"/>
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="9"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
       <c r="G21" s="3"/>
       <c r="H21" s="9"/>
       <c r="K21" s="14"/>
-      <c r="M21" s="26"/>
       <c r="P21" s="14"/>
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="3:22">
       <c r="C22" s="9"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="3"/>
       <c r="H22" s="9"/>
       <c r="K22" s="14"/>
-      <c r="M22" s="26"/>
       <c r="P22" s="14"/>
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="9"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
       <c r="G23" s="3"/>
       <c r="H23" s="9"/>
       <c r="K23" s="14"/>
-      <c r="M23" s="26"/>
       <c r="P23" s="14"/>
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="3:22">
       <c r="C24" s="9"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
       <c r="G24" s="3"/>
       <c r="H24" s="9"/>
       <c r="K24" s="14"/>
-      <c r="M24" s="26"/>
       <c r="P24" s="14"/>
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" s="9"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="3"/>
       <c r="H25" s="9"/>
       <c r="K25" s="14"/>
-      <c r="M25" s="26"/>
       <c r="P25" s="14"/>
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="3:22">
       <c r="C26" s="9"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="3"/>
       <c r="H26" s="9"/>
       <c r="K26" s="14"/>
-      <c r="M26" s="26"/>
       <c r="P26" s="14"/>
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="3:22">
       <c r="C27" s="9"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="3"/>
       <c r="H27" s="9"/>
       <c r="K27" s="14"/>
-      <c r="M27" s="26"/>
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="3:22">
       <c r="C28" s="9"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="3"/>
       <c r="H28" s="9"/>
       <c r="K28" s="14"/>
-      <c r="M28" s="26"/>
       <c r="V28" s="3"/>
     </row>
     <row r="29" spans="3:22">
       <c r="C29" s="9"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="3"/>
       <c r="H29" s="9"/>
       <c r="K29" s="14"/>
-      <c r="M29" s="26"/>
       <c r="V29" s="3"/>
     </row>
     <row r="30" spans="3:22">
       <c r="C30" s="9"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="3"/>
       <c r="H30" s="9"/>
       <c r="K30" s="14"/>
-      <c r="M30" s="26"/>
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="3:22">
       <c r="C31" s="9"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="3"/>
       <c r="H31" s="9"/>
       <c r="K31" s="14"/>
-      <c r="M31" s="26"/>
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="3:22">
       <c r="C32" s="9"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="3"/>
       <c r="H32" s="9"/>
       <c r="K32" s="14"/>
-      <c r="M32" s="26"/>
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="3:22">
@@ -4221,7 +4200,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="9"/>
       <c r="K33" s="14"/>
-      <c r="M33" s="20"/>
+      <c r="M33" s="39"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="8"/>
@@ -4235,7 +4214,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="9"/>
       <c r="K34" s="14"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="39"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="8"/>
@@ -4249,7 +4228,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="9"/>
       <c r="K35" s="14"/>
-      <c r="M35" s="20"/>
+      <c r="M35" s="39"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="8"/>
@@ -4263,7 +4242,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="9"/>
       <c r="K36" s="14"/>
-      <c r="M36" s="20"/>
+      <c r="M36" s="39"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="8"/>
@@ -4277,7 +4256,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="9"/>
       <c r="K37" s="14"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="39"/>
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="3:22">
@@ -4288,7 +4267,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="9"/>
       <c r="K38" s="14"/>
-      <c r="M38" s="20"/>
+      <c r="M38" s="39"/>
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="3:22">
@@ -4299,7 +4278,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="9"/>
       <c r="K39" s="14"/>
-      <c r="M39" s="20"/>
+      <c r="M39" s="39"/>
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="3:22">
@@ -4310,7 +4289,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="9"/>
       <c r="K40" s="14"/>
-      <c r="M40" s="20"/>
+      <c r="M40" s="39"/>
       <c r="V40" s="3"/>
     </row>
     <row r="41" spans="3:22">
@@ -4321,7 +4300,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="9"/>
       <c r="K41" s="14"/>
-      <c r="M41" s="20"/>
+      <c r="M41" s="39"/>
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="3:22">
@@ -4332,7 +4311,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="9"/>
       <c r="K42" s="14"/>
-      <c r="M42" s="20"/>
+      <c r="M42" s="39"/>
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="3:22">
@@ -4343,7 +4322,6 @@
       <c r="G43" s="3"/>
       <c r="H43" s="9"/>
       <c r="K43" s="14"/>
-      <c r="M43" s="26"/>
       <c r="Q43" s="13"/>
       <c r="S43" s="8"/>
       <c r="V43" s="3"/>
@@ -4356,7 +4334,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="9"/>
       <c r="K44" s="14"/>
-      <c r="M44" s="20"/>
+      <c r="M44" s="39"/>
       <c r="V44" s="3"/>
     </row>
     <row r="45" spans="3:22">
@@ -4367,7 +4345,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="9"/>
       <c r="K45" s="14"/>
-      <c r="M45" s="21"/>
+      <c r="M45" s="40"/>
       <c r="S45" s="8"/>
       <c r="V45" s="3"/>
     </row>
